--- a/medicine/Mort/Cimetières_de_la_Bergmannstraße/Cimetières_de_la_Bergmannstraße.xlsx
+++ b/medicine/Mort/Cimetières_de_la_Bergmannstraße/Cimetières_de_la_Bergmannstraße.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_de_la_Bergmannstra%C3%9Fe</t>
+          <t>Cimetières_de_la_Bergmannstraße</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières de la Bergmannstraße (Friedhöfe an der Bergmannstraße) est un cimetière berlinois d'environ 20 hectares appartenant à quatre paroisses évangéliques différentes à Berlin-Kreuzberg en Allemagne. Ils sont entourés par les rues Lilienthalstraße à l'est, Züllichauer Straße, Golßener Straße et Jüteborger Straße au sud, Heimstraße à l'ouest et Bergmannstraße, qui leur donne son nom, au nord. Les cimetières sont accessibles via la place Südstern ainsi que sa station de métro homonyme au nord-est, ou via le grand parc de l'ancien aéroport de Tempelhof au sud.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_de_la_Bergmannstra%C3%9Fe</t>
+          <t>Cimetières_de_la_Bergmannstraße</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les quatre cimetières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Cimetière de la Trinité (division II) (Dreifaltigkeitskirchhof II), rattaché à la paroisse de la Trinité a été ouvert en 1825 à l'ouest de la zone. Il s'étend sur 45 773 m².
 Le Cimetière de Luisenstadt (Luisenstädtischer Friedhof), rattaché à la paroisse de Luisenstadt a été ouvert en 1831 au sud-est de la zone à la place d'un ancien vignoble. Il s'étend sur 90 155 m².
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_de_la_Bergmannstra%C3%9Fe</t>
+          <t>Cimetières_de_la_Bergmannstraße</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Klaus Hammer, Friedhöfe in Berlin – Ein kunst- und kulturgeschichtlicher Führer, Berlin, Jaron Verlag, 2006 (ISBN 3-89773-132-0)</t>
         </is>
